--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1081733.632412505</v>
+        <v>-1088170.156988092</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.0933791245</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13050244.59934386</v>
+        <v>13049654.61995344</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>153.4996467581155</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -707,19 +707,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>30.07071642981601</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -750,10 +750,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09591959794617</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -798,7 +798,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>119.9426376996103</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>60.51798546016328</v>
       </c>
       <c r="W4" t="n">
-        <v>177.3207065014958</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -905,13 +905,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>122.3398633308661</v>
+        <v>264.4116253735766</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968138</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>61.21485839246205</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>144.7467681673237</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>162.7887396293029</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>318.8474535287407</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>123.3537724153786</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -1196,10 +1196,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>141.6202002047906</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>3.777855937592519</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
-        <v>211.9794710404048</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
@@ -1388,7 +1388,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.897481179122195</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>8.355951226394069</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442481</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681694</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338899</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456092</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>10.6556929826341</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
@@ -1594,7 +1594,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>123.3309198014324</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>265.0998898984321</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -1622,10 +1622,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362797</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177843</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465754</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F16" t="n">
-        <v>25.68051660339817</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456092</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901683</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>164.4522733469786</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.671158641292</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
@@ -1895,7 +1895,7 @@
         <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059334</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -2369,7 +2369,7 @@
         <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059288</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542122</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.907289182028</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345502</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852513</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.6172884383891</v>
+        <v>24.17382596574974</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828922</v>
+        <v>52.06849973564987</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161068</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034461</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813247</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.221621716203</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885342</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431754</v>
+        <v>70.57601873167819</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459995</v>
+        <v>55.7231469819606</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643968</v>
+        <v>41.29686219380032</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931879</v>
+        <v>41.22330424667943</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908606</v>
+        <v>42.9727556664467</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147819</v>
+        <v>53.79159358883884</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805023</v>
+        <v>41.14384575541088</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922216</v>
+        <v>18.98356133658281</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367808</v>
+        <v>9.882059701038727</v>
       </c>
       <c r="S34" t="n">
-        <v>94.4514656792054</v>
+        <v>88.00800320656604</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133775</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273133</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.403061694776</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708446</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369168</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.023168958339</v>
+        <v>1008.440678488944</v>
       </c>
       <c r="C2" t="n">
-        <v>1335.973020717819</v>
+        <v>1008.440678488944</v>
       </c>
       <c r="D2" t="n">
-        <v>1335.973020717819</v>
+        <v>1008.440678488944</v>
       </c>
       <c r="E2" t="n">
-        <v>1335.973020717819</v>
+        <v>605.8571536054885</v>
       </c>
       <c r="F2" t="n">
-        <v>919.0785822477965</v>
+        <v>188.9627151354663</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357996</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475503</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>175.3530084793386</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>668.6733001978674</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1206.932085207961</v>
+        <v>1552.058346020845</v>
       </c>
       <c r="N2" t="n">
-        <v>1734.743368845423</v>
+        <v>2065.661024630533</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023273</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964324</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="T2" t="n">
-        <v>1746.775898523741</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="U2" t="n">
-        <v>1491.023168958339</v>
+        <v>1781.416694537041</v>
       </c>
       <c r="V2" t="n">
-        <v>1491.023168958339</v>
+        <v>1439.309885240559</v>
       </c>
       <c r="W2" t="n">
-        <v>1491.023168958339</v>
+        <v>1408.935424200341</v>
       </c>
       <c r="X2" t="n">
-        <v>1491.023168958339</v>
+        <v>1408.935424200341</v>
       </c>
       <c r="Y2" t="n">
-        <v>1491.023168958339</v>
+        <v>1408.935424200341</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021465</v>
+        <v>840.8692298963693</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622387</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837191</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946068</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777386</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G3" t="n">
-        <v>114.1919230777386</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284344</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>88.23137426403031</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>407.9705203262567</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>407.9705203262567</v>
       </c>
       <c r="M3" t="n">
-        <v>1018.276226875482</v>
+        <v>407.9705203262567</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875482</v>
+        <v>921.5731989359444</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466463</v>
+        <v>1435.175877545632</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182861</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635816</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535685</v>
+        <v>1940.231660716789</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734593</v>
+        <v>1763.247848915697</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413235</v>
+        <v>1553.184705594339</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784302</v>
+        <v>1330.644703965406</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917589</v>
+        <v>1209.49052447085</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692676006</v>
+        <v>1020.183446820862</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431079</v>
+        <v>840.8692298963693</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475503</v>
+        <v>362.3018770801856</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475503</v>
+        <v>362.3018770801856</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475503</v>
+        <v>362.3018770801856</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475503</v>
+        <v>362.3018770801856</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475503</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475503</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475503</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475503</v>
+        <v>71.88151693023646</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S4" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T4" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="U4" t="n">
-        <v>456.6878063607576</v>
+        <v>657.5114775397917</v>
       </c>
       <c r="V4" t="n">
-        <v>456.6878063607576</v>
+        <v>596.3821992972025</v>
       </c>
       <c r="W4" t="n">
-        <v>277.575981611772</v>
+        <v>596.3821992972025</v>
       </c>
       <c r="X4" t="n">
-        <v>43.49565939475503</v>
+        <v>362.3018770801856</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475503</v>
+        <v>362.3018770801856</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1650.712604500227</v>
+        <v>1175.587336757847</v>
       </c>
       <c r="C5" t="n">
-        <v>1257.537103003158</v>
+        <v>1175.587336757847</v>
       </c>
       <c r="D5" t="n">
-        <v>872.0959742198255</v>
+        <v>790.1462079745143</v>
       </c>
       <c r="E5" t="n">
-        <v>469.51244933637</v>
+        <v>387.5626830910587</v>
       </c>
       <c r="F5" t="n">
-        <v>52.6180108663478</v>
+        <v>374.7086486614405</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475503</v>
+        <v>365.5862971898478</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475503</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222169</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>895.7983071407457</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>895.7983071407457</v>
+        <v>1552.058346020845</v>
       </c>
       <c r="N5" t="n">
-        <v>1423.609590778208</v>
+        <v>1552.058346020845</v>
       </c>
       <c r="O5" t="n">
-        <v>1863.649191670536</v>
+        <v>1552.058346020845</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596803</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737752</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737752</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737752</v>
+        <v>1813.668821661859</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.782969737752</v>
+        <v>1813.668821661859</v>
       </c>
       <c r="V5" t="n">
-        <v>2174.782969737752</v>
+        <v>1813.668821661859</v>
       </c>
       <c r="W5" t="n">
-        <v>2174.782969737752</v>
+        <v>1442.669786630146</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.207350211624</v>
+        <v>1175.587336757847</v>
       </c>
       <c r="Y5" t="n">
-        <v>2051.207350211624</v>
+        <v>1175.587336757847</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>704.4227390072571</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>553.7685085673493</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284344</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L6" t="n">
-        <v>476.3497876767088</v>
+        <v>813.5918890426542</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.608572686802</v>
+        <v>1327.194567652342</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.89759559188</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182861</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182861</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737752</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737752</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1677.497615518346</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1454.957613889413</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1224.8403680227</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1035.533290372711</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>856.2190734482184</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>231.1998643556801</v>
+        <v>187.7121034910088</v>
       </c>
       <c r="C7" t="n">
-        <v>231.1998643556801</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="D7" t="n">
-        <v>231.1998643556801</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="E7" t="n">
-        <v>231.1998643556801</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="F7" t="n">
-        <v>73.87392956865308</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G7" t="n">
-        <v>73.87392956865308</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865308</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865308</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>707.2312174661248</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>421.7924257080257</v>
       </c>
       <c r="V7" t="n">
-        <v>678.9633367571316</v>
+        <v>421.7924257080257</v>
       </c>
       <c r="W7" t="n">
-        <v>395.6329346883093</v>
+        <v>421.7924257080257</v>
       </c>
       <c r="X7" t="n">
-        <v>231.1998643556801</v>
+        <v>187.7121034910088</v>
       </c>
       <c r="Y7" t="n">
-        <v>231.1998643556801</v>
+        <v>187.7121034910088</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>579.3302549026308</v>
+        <v>454.7304847860868</v>
       </c>
       <c r="C8" t="n">
-        <v>579.3302549026308</v>
+        <v>454.7304847860868</v>
       </c>
       <c r="D8" t="n">
-        <v>193.8891261192986</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="E8" t="n">
-        <v>193.8891261192986</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F8" t="n">
-        <v>181.0350916896804</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
-        <v>171.9127402180876</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>171.9127402180876</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>538.1002202902207</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>1031.420512008749</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297768</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="V8" t="n">
-        <v>1339.781895001287</v>
+        <v>1544.288363774714</v>
       </c>
       <c r="W8" t="n">
-        <v>968.782859969574</v>
+        <v>1173.289328743002</v>
       </c>
       <c r="X8" t="n">
-        <v>579.3302549026308</v>
+        <v>1173.289328743002</v>
       </c>
       <c r="Y8" t="n">
-        <v>579.3302549026308</v>
+        <v>776.7986196636027</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
         <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>678.132212472995</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1263.630217479597</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486199</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>536.6238966698598</v>
+        <v>571.6289631485129</v>
       </c>
       <c r="C10" t="n">
-        <v>366.4187787358491</v>
+        <v>401.4238452145021</v>
       </c>
       <c r="D10" t="n">
-        <v>210.7856656383638</v>
+        <v>401.4238452145021</v>
       </c>
       <c r="E10" t="n">
-        <v>210.7856656383638</v>
+        <v>401.4238452145021</v>
       </c>
       <c r="F10" t="n">
-        <v>210.7856656383638</v>
+        <v>401.4238452145021</v>
       </c>
       <c r="G10" t="n">
-        <v>210.7856656383638</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
         <v>77.69124027544166</v>
@@ -4990,22 +4990,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>805.7092853655298</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>805.7092853655298</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>805.7092853655298</v>
       </c>
       <c r="W10" t="n">
-        <v>944.9439765445178</v>
+        <v>805.7092853655298</v>
       </c>
       <c r="X10" t="n">
-        <v>944.9439765445178</v>
+        <v>571.6289631485129</v>
       </c>
       <c r="Y10" t="n">
-        <v>721.8319153611611</v>
+        <v>571.6289631485129</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1835.704390901101</v>
+        <v>2033.22271816768</v>
       </c>
       <c r="C11" t="n">
-        <v>1514.325164550225</v>
+        <v>1711.843491816804</v>
       </c>
       <c r="D11" t="n">
-        <v>1200.680310913086</v>
+        <v>1398.198638179666</v>
       </c>
       <c r="E11" t="n">
-        <v>869.8930611758251</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>655.7723833572338</v>
+        <v>722.3132251185754</v>
       </c>
       <c r="G11" t="n">
-        <v>314.4059029914309</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H11" t="n">
+        <v>128.6599694654569</v>
+      </c>
+      <c r="I11" t="n">
         <v>62.11912770411553</v>
       </c>
-      <c r="I11" t="n">
-        <v>62.11912770411573</v>
-      </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>3004.271952586837</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>3004.271952586837</v>
       </c>
       <c r="V11" t="n">
-        <v>3105.956385205776</v>
+        <v>3004.271952586837</v>
       </c>
       <c r="W11" t="n">
-        <v>2806.753625320258</v>
+        <v>3004.271952586837</v>
       </c>
       <c r="X11" t="n">
-        <v>2489.097295399509</v>
+        <v>2686.615622666088</v>
       </c>
       <c r="Y11" t="n">
-        <v>2164.402861466304</v>
+        <v>2361.921188732883</v>
       </c>
     </row>
     <row r="12">
@@ -5118,13 +5118,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
         <v>1223.947919817482</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>389.0869922083496</v>
+        <v>420.1462958193399</v>
       </c>
       <c r="C13" t="n">
-        <v>389.0869922083496</v>
+        <v>411.7059410452044</v>
       </c>
       <c r="D13" t="n">
-        <v>389.0869922083496</v>
+        <v>327.8691030939131</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083496</v>
+        <v>244.1065660993094</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675165</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.969315569423</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S13" t="n">
-        <v>1485.969315569423</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T13" t="n">
-        <v>1322.046538883851</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U13" t="n">
-        <v>1108.404022271946</v>
+        <v>988.1475398457735</v>
       </c>
       <c r="V13" t="n">
-        <v>914.2209522389638</v>
+        <v>793.9644698127917</v>
       </c>
       <c r="W13" t="n">
-        <v>702.6868253163353</v>
+        <v>582.4303428901632</v>
       </c>
       <c r="X13" t="n">
-        <v>540.4027782455123</v>
+        <v>420.1462958193399</v>
       </c>
       <c r="Y13" t="n">
-        <v>389.0869922083496</v>
+        <v>420.1462958193399</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1769.879336723576</v>
+        <v>1413.689529456423</v>
       </c>
       <c r="C14" t="n">
-        <v>1645.302650055462</v>
+        <v>1413.689529456423</v>
       </c>
       <c r="D14" t="n">
-        <v>1331.657796418324</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.870546681062</v>
+        <v>815.1246131550884</v>
       </c>
       <c r="F14" t="n">
-        <v>655.7723833572338</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="G14" t="n">
-        <v>314.4059029914309</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>3011.239105293021</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="V14" t="n">
-        <v>2740.928571142733</v>
+        <v>2683.941523761099</v>
       </c>
       <c r="W14" t="n">
-        <v>2740.928571142733</v>
+        <v>2384.73876387558</v>
       </c>
       <c r="X14" t="n">
-        <v>2423.272241221984</v>
+        <v>2067.082433954831</v>
       </c>
       <c r="Y14" t="n">
-        <v>2098.577807288779</v>
+        <v>1742.388000021626</v>
       </c>
     </row>
     <row r="15">
@@ -5355,13 +5355,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M15" t="n">
         <v>1458.313011372373</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>316.9565686277468</v>
+        <v>424.4305621332089</v>
       </c>
       <c r="C16" t="n">
-        <v>316.9565686277468</v>
+        <v>326.0217193453919</v>
       </c>
       <c r="D16" t="n">
-        <v>233.1197306764555</v>
+        <v>326.0217193453919</v>
       </c>
       <c r="E16" t="n">
-        <v>149.3571936818519</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="F16" t="n">
-        <v>123.4172779208437</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208437</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K16" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593279</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>1149.68534223645</v>
+        <v>936.0428256245441</v>
       </c>
       <c r="V16" t="n">
-        <v>955.5022722034682</v>
+        <v>741.8597555915621</v>
       </c>
       <c r="W16" t="n">
-        <v>743.9681452808397</v>
+        <v>575.7463481703717</v>
       </c>
       <c r="X16" t="n">
-        <v>581.6840982100167</v>
+        <v>575.7463481703717</v>
       </c>
       <c r="Y16" t="n">
-        <v>430.3683121728542</v>
+        <v>424.4305621332089</v>
       </c>
     </row>
     <row r="17">
@@ -5498,7 +5498,7 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
         <v>542.6718405099316</v>
@@ -5543,10 +5543,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5555,10 +5555,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>378.9738643893075</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5674,22 +5674,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
         <v>1098.20216247628</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5774,10 +5774,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,16 +5786,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5838,16 +5838,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N21" t="n">
-        <v>1521.202330875214</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="O21" t="n">
-        <v>2037.722613466195</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5902,25 +5902,25 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
         <v>974.9038003296507</v>
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6026,13 +6026,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6066,19 +6066,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
-        <v>1974.833293963354</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
         <v>1974.833293963354</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>2243.686201918055</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>2205.157820666453</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>2181.201444251376</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>2157.319368792987</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>2131.670170688369</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>2095.092853470223</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>2071.291039114125</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>2069.873350433611</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>2069.873350433611</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>2151.708391543553</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128483</v>
+        <v>2315.836031417353</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>2502.127609755617</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>2685.317243786826</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>2848.022010828534</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>3096.954546227541</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>3034.817038070734</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>2930.774722921377</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>2777.012667845686</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>2642.710059348919</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>2491.056393962505</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>2388.652808427897</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>2297.217483926948</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755029</v>
       </c>
       <c r="J26" t="n">
         <v>218.0146318563784</v>
@@ -6233,22 +6233,22 @@
         <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1832.39041838852</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025981</v>
+        <v>2453.253063755555</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>2986.344026377457</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.582880238552</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379501</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605753</v>
@@ -6260,16 +6260,16 @@
         <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.131976164852</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420328</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>872.7308420875812</v>
+        <v>872.7308420875813</v>
       </c>
       <c r="C27" t="n">
-        <v>722.0766116476734</v>
+        <v>722.0766116476735</v>
       </c>
       <c r="D27" t="n">
-        <v>591.9876442691537</v>
+        <v>591.9876442691539</v>
       </c>
       <c r="E27" t="n">
         <v>455.5411533800415</v>
@@ -6294,31 +6294,31 @@
         <v>331.1093472631733</v>
       </c>
       <c r="G27" t="n">
-        <v>211.0495293350377</v>
+        <v>211.0495293350378</v>
       </c>
       <c r="H27" t="n">
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755029</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755029</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>393.1040050097768</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>876.6700909080901</v>
       </c>
       <c r="M27" t="n">
-        <v>1469.558742615807</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N27" t="n">
-        <v>1469.558742615807</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="O27" t="n">
-        <v>1986.079025206788</v>
+        <v>2020.962023125752</v>
       </c>
       <c r="P27" t="n">
         <v>2391.700393923186</v>
@@ -6327,13 +6327,13 @@
         <v>2391.700393923186</v>
       </c>
       <c r="R27" t="n">
-        <v>2367.78335082125</v>
+        <v>2367.783350821251</v>
       </c>
       <c r="S27" t="n">
-        <v>2232.852673721119</v>
+        <v>2232.85267372112</v>
       </c>
       <c r="T27" t="n">
-        <v>2055.868861920027</v>
+        <v>2055.868861920028</v>
       </c>
       <c r="U27" t="n">
         <v>1845.80571859867</v>
@@ -6342,13 +6342,13 @@
         <v>1623.265716969737</v>
       </c>
       <c r="W27" t="n">
-        <v>1393.148471103023</v>
+        <v>1393.148471103024</v>
       </c>
       <c r="X27" t="n">
         <v>1203.841393453035</v>
       </c>
       <c r="Y27" t="n">
-        <v>1024.527176528542</v>
+        <v>1024.527176528543</v>
       </c>
     </row>
     <row r="28">
@@ -6358,52 +6358,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878069</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879682</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746021</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232844</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755029</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.528880919201</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286449</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6467,19 +6467,19 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1342.204025341951</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1981.256287116105</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.386271932278</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O29" t="n">
-        <v>3049.425872824607</v>
+        <v>3042.158533375469</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.613364956129</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q29" t="n">
         <v>3668.242947377513</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6543,10 +6543,10 @@
         <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>358.2210070908127</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>841.787092989126</v>
       </c>
       <c r="M30" t="n">
         <v>1469.558742615807</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517123</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414153</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
         <v>111.5186030232841</v>
@@ -6628,7 +6628,7 @@
         <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286446</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.768815498816</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026477</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463679</v>
+        <v>904.3560533993075</v>
       </c>
       <c r="F32" t="n">
-        <v>622.89878230571</v>
+        <v>601.3807258108105</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230776</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189325</v>
+        <v>91.97314162835491</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>255.265054374455</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>614.2474104019168</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.910151741593</v>
+        <v>1107.567702120446</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.184144513244</v>
+        <v>1765.220722740009</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150706</v>
+        <v>2293.032006377471</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043034</v>
+        <v>2733.0716072698</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174556</v>
+        <v>3192.911219976304</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042574</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908499</v>
+        <v>3325.162335939829</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.18438039728</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076169</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>1500.624429827983</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1500.624429827983</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965143</v>
+        <v>365.6713676929709</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918679</v>
+        <v>309.3853606404855</v>
       </c>
       <c r="D34" t="n">
-        <v>302.206510823747</v>
+        <v>267.6713584245256</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123138</v>
+        <v>226.0316571652534</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546512</v>
+        <v>182.6248332597517</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834611</v>
+        <v>128.2898902407225</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431942</v>
+        <v>86.73045008374184</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076169</v>
+        <v>149.4335135798905</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>342.9206752648154</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805559</v>
+        <v>618.7004357135982</v>
       </c>
       <c r="M34" t="n">
-        <v>701.10157434589</v>
+        <v>804.9920140518622</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041691</v>
+        <v>1093.981306685317</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145877</v>
+        <v>1256.686073727025</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649526</v>
+        <v>1376.562239503604</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308588</v>
+        <v>1370.002557387757</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250173</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395539</v>
+        <v>835.7257283273668</v>
       </c>
       <c r="W34" t="n">
-        <v>733.392329300096</v>
+        <v>666.3144371400697</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124435</v>
+        <v>546.1532258045781</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584512</v>
+        <v>436.9602755027469</v>
       </c>
     </row>
     <row r="35">
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7099,13 +7099,13 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
         <v>974.9038003296507</v>
@@ -7196,10 +7196,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>346.0196676966397</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>346.0196676966397</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>973.7913173233209</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N39" t="n">
-        <v>1629.56928853388</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O39" t="n">
-        <v>2146.089571124861</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7333,25 +7333,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>270.9691711012525</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>435.0968109750523</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>621.3883893133163</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>804.5780233445255</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>967.2827903862335</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975445</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924217</v>
+        <v>68.7795079292423</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,7 +7433,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829235</v>
@@ -7451,7 +7451,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7494,19 +7494,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D43" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G43" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291065</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128481</v>
       </c>
       <c r="M43" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511122</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797589</v>
+        <v>776.8456480823213</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214669</v>
+        <v>939.5504151240293</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498045</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856983999</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="44">
@@ -7676,19 +7676,19 @@
         <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443166</v>
@@ -7725,19 +7725,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="L45" t="n">
-        <v>545.6852136024288</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M45" t="n">
-        <v>1173.45686322911</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N45" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
         <v>1974.833293963354</v>
@@ -7804,28 +7804,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>161.4017547291065</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>270.9691711012539</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>435.0968109750537</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>621.3883893133177</v>
+        <v>499.9530296343063</v>
       </c>
       <c r="N46" t="n">
-        <v>804.5780233445269</v>
+        <v>683.1426636655156</v>
       </c>
       <c r="O46" t="n">
-        <v>967.2827903862349</v>
+        <v>974.9038003296521</v>
       </c>
       <c r="P46" t="n">
-        <v>1087.158956162813</v>
+        <v>1094.779966106231</v>
       </c>
       <c r="Q46" t="n">
-        <v>1090.581152532864</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="R46" t="n">
         <v>1098.202162476282</v>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>276.2476446788168</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321651</v>
+        <v>668.5156360519572</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920142</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>159.1611234709524</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>129.6445861289817</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>151.3369738679587</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083967</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.478143343119</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8222,16 +8222,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519572</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>277.8653037321037</v>
+        <v>491.9766307309522</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8298,16 +8298,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>432.7214721138495</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837497</v>
+        <v>611.1777065035419</v>
       </c>
       <c r="N6" t="n">
-        <v>498.7953683138411</v>
+        <v>604.1626973083967</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>492.6922186134283</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8462,13 +8462,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8535,22 +8535,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>404.2826663611858</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>384.8576652182076</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8775,7 +8775,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>340.2745745069883</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N12" t="n">
         <v>85.37211285416666</v>
@@ -9003,16 +9003,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>543.2755872400996</v>
       </c>
       <c r="M15" t="n">
-        <v>577.006990218999</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>85.37211285416666</v>
@@ -9240,25 +9240,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>409.6522249143353</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9410,7 +9410,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
@@ -9486,19 +9486,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>196.5449382119064</v>
+        <v>320.902235706038</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9723,13 +9723,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>571.8744206036794</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9960,7 +9960,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>691.2645480167031</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
@@ -9969,7 +9969,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>461.5665676450056</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10191,13 +10191,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063258</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>691.2645480167031</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10437,10 +10437,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O33" t="n">
-        <v>342.4574509263909</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10662,28 +10662,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>117.494503443537</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,28 +10899,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>262.1075997502998</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>461.5665676450056</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11142,22 +11142,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>176.3345925796061</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,13 +11373,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.2265410010273</v>
       </c>
       <c r="K45" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
@@ -11388,7 +11388,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>239.756709922914</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>129.6677106501852</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372785</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362797</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>143.2898028423234</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>97.4247543599387</v>
+        <v>89.06880313354469</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177843</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465754</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.92797409638273</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>194.8345142859344</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>45.40851520233488</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372785</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>97.4247543599387</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>58.99384644102664</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681694</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338899</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>44.96651230642368</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1146962.423553075</v>
+        <v>1146661.649746195</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1146962.423553075</v>
+        <v>1146661.649746195</v>
       </c>
     </row>
     <row r="4">
@@ -26341,16 +26341,16 @@
         <v>126232.5246653498</v>
       </c>
       <c r="L2" t="n">
-        <v>126232.5246653499</v>
+        <v>126232.5246653498</v>
       </c>
       <c r="M2" t="n">
-        <v>126232.5246653496</v>
+        <v>126232.5246653497</v>
       </c>
       <c r="N2" t="n">
         <v>126232.5246653496</v>
       </c>
       <c r="O2" t="n">
-        <v>126232.5246653499</v>
+        <v>126232.5246653495</v>
       </c>
       <c r="P2" t="n">
         <v>126232.5246653496</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918561</v>
+        <v>173858.6570340549</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062169</v>
+        <v>22558.42953401365</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668193</v>
+        <v>47425.32553668198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728535</v>
+        <v>62456.24177539687</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962296</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277129</v>
+        <v>27767.69404277113</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892384</v>
+        <v>184487.2052585817</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892384</v>
+        <v>184487.2052585817</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
-        <v>86988.78851589428</v>
+        <v>86988.78851589424</v>
       </c>
       <c r="F4" t="n">
-        <v>86988.78851589428</v>
+        <v>86988.78851589424</v>
       </c>
       <c r="G4" t="n">
         <v>134747.7050074764</v>
@@ -26445,7 +26445,7 @@
         <v>135498.1974718596</v>
       </c>
       <c r="L4" t="n">
-        <v>135242.6235713762</v>
+        <v>135109.2289623214</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,19 +26485,19 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391952</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173853</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-300732.5295557586</v>
+        <v>-297283.4051621041</v>
       </c>
       <c r="C6" t="n">
-        <v>-118527.5812639024</v>
+        <v>-123424.7481280491</v>
       </c>
       <c r="D6" t="n">
-        <v>-123967.1232397266</v>
+        <v>-131703.4124631185</v>
       </c>
       <c r="E6" t="n">
-        <v>-140746.0532926991</v>
+        <v>-140955.7848393885</v>
       </c>
       <c r="F6" t="n">
-        <v>-28623.49181865453</v>
+        <v>-28833.223365344</v>
       </c>
       <c r="G6" t="n">
         <v>-114110.2751943285</v>
       </c>
       <c r="H6" t="n">
-        <v>-66684.94965764653</v>
+        <v>-66684.94965764646</v>
       </c>
       <c r="I6" t="n">
         <v>-66684.94965764653</v>
       </c>
       <c r="J6" t="n">
-        <v>-279726.8672549321</v>
+        <v>-273210.5821003586</v>
       </c>
       <c r="K6" t="n">
-        <v>-72924.7180604293</v>
+        <v>-72924.71806042932</v>
       </c>
       <c r="L6" t="n">
-        <v>-128107.3069950502</v>
+        <v>-132156.1442055228</v>
       </c>
       <c r="M6" t="n">
-        <v>-108885.7791172695</v>
+        <v>-109937.4741284576</v>
       </c>
       <c r="N6" t="n">
-        <v>-66684.94965764655</v>
+        <v>-66684.94965764649</v>
       </c>
       <c r="O6" t="n">
-        <v>-94452.64370041748</v>
+        <v>-94452.64370041766</v>
       </c>
       <c r="P6" t="n">
-        <v>-66684.94965764633</v>
+        <v>-66684.94965764644</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26710,10 +26710,10 @@
         <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,7 +26722,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="P2" t="n">
         <v>130.3599693155843</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.79058445423</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.79058445423</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443785</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095211</v>
+        <v>844.4391950293133</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660669</v>
+        <v>78.07030221924609</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551366</v>
+        <v>17.58004954287431</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346411</v>
+        <v>34.70961755346391</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.79058445423</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.7163838348572</v>
+        <v>72.62154181506503</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.267382977372</v>
+        <v>659.3622249971645</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407197</v>
+        <v>117.1268713042798</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.79058445423</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.7163838348572</v>
+        <v>72.62154181506503</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>235.7440997239832</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>337.2183282515794</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,10 +27470,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>66.3185226374589</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>107.8734357084357</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27555,10 +27555,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27594,10 +27594,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>202.8015662672207</v>
       </c>
       <c r="W4" t="n">
-        <v>103.1763915466383</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -27676,10 +27676,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.2182156854076</v>
+        <v>121.1464536426972</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27701,7 +27701,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626683</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>146.7476534956826</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>23.75629858734695</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27783,7 +27783,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>68.95077936554387</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>77.64234472554222</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -27871,7 +27871,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>13.59997332308124</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28023,13 +28023,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>91.74166110865758</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28071,13 +28071,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>276.7192421105416</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="17">
@@ -28746,7 +28746,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28755,16 +28755,16 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.636002634528936</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28980,22 +28980,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>35.71049010668813</v>
-      </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="U23" t="n">
         <v>130.3599693155844</v>
@@ -29217,28 +29217,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>35.71049010668816</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>5.636002634529234</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29305,10 +29305,10 @@
         <v>93.99127447431644</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>30.27223765901363</v>
       </c>
       <c r="N26" t="n">
-        <v>30.2722376590126</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O26" t="n">
         <v>93.99127447431644</v>
@@ -29317,7 +29317,7 @@
         <v>93.99127447431644</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431644</v>
@@ -29472,7 +29472,7 @@
         <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431664</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
         <v>93.99127447431644</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431644</v>
+        <v>86.65052755599572</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>86.65052755599578</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,40 +29746,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>43.49509683159781</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>86.2729119656691</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000707</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="L34" t="n">
-        <v>94.97643844045717</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000707</v>
+        <v>106.8683420224705</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30171,16 +30171,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M37" t="n">
-        <v>5.636002634529177</v>
-      </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H38" t="n">
         <v>130.3599693155844</v>
@@ -30405,28 +30405,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>130.3599693155844</v>
+      </c>
+      <c r="R40" t="n">
         <v>128.2979821082779</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>130.3599693155844</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="42">
@@ -30615,31 +30615,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>35.71049010668912</v>
       </c>
       <c r="R43" t="n">
-        <v>128.297982108277</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="44">
@@ -30876,23 +30876,23 @@
         <v>130.3599693155843</v>
       </c>
       <c r="J46" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5.636002634530456</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>130.3599693155843</v>
       </c>
-      <c r="K46" t="n">
-        <v>28.01250026485405</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>130.3599693155843</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155843</v>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>133.1892414995794</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344379</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>9.597286046856066</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>47.20012879564839</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>58.94985181864683</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.79058445423</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34942,16 +34942,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>127.5638564911785</v>
+        <v>341.675183490027</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35018,16 +35018,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.6611252569313</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344379</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N6" t="n">
-        <v>413.4232554596744</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>349.6338154341909</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35182,13 +35182,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>314.2223195042675</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>292.4705431688957</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35495,7 +35495,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
         <v>235.4265619318108</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>453.2152403831814</v>
       </c>
       <c r="M15" t="n">
-        <v>484.6198681696871</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>320.0552895810019</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133901</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36051,16 +36051,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724871</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
@@ -36206,19 +36206,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>109.4615733925917</v>
+        <v>233.8188708867233</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36288,10 +36288,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>220.7505244816469</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36443,13 +36443,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>486.5023077495127</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36522,7 +36522,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>223.8838015594801</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36531,10 +36531,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681717</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,10 +36601,10 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>581.7882983101051</v>
       </c>
       <c r="N26" t="n">
-        <v>563.4149484039237</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
@@ -36613,7 +36613,7 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698316</v>
@@ -36680,7 +36680,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>598.8774259673912</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>374.483202825691</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36768,7 +36768,7 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122748</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
         <v>97.44803848446892</v>
@@ -36835,22 +36835,22 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>584.9538525242067</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>273.3632145670549</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729924</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>598.8774259673912</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>189.6059785576868</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>584.5762369338801</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511622</v>
+        <v>664.2959804238016</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
@@ -37084,13 +37084,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>464.4844572792978</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111299</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273744</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37157,10 +37157,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O33" t="n">
-        <v>249.769892037502</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.705432300551</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>195.44157745952</v>
       </c>
       <c r="L34" t="n">
-        <v>260.7619332624772</v>
+        <v>278.56541459473</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528627</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750295</v>
+        <v>291.9083763974293</v>
       </c>
       <c r="O34" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380289</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102232</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,16 +37467,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>193.8093140873211</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>172.5106644169664</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>374.483202825691</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>210.9596397950879</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>86.27424572268784</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37944,7 +37944,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37956,10 +37956,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>39.1672541168416</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634528176</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>113.782083667694</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
@@ -38108,7 +38108,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>147.0691510340251</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.2854818434252</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>110.674157951664</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873224</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>7.697989841835494</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
